--- a/数据整理/stocks/A股/上证主板/600732-爱旭股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600732-爱旭股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006270</t>
+          <t>002269</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安核心成长混合A</t>
+          <t>银华大数据灵活配置定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.30</t>
+          <t>30.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006271</t>
+          <t>005796</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安核心成长混合C</t>
+          <t>嘉实新添荣定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.30</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9056</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007056</t>
+          <t>070021</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华积极精选混合</t>
+          <t>嘉实主题新动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>12.77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6219</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009768</t>
+          <t>001227</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信汇悦一年定期开放混合A</t>
+          <t>中邮信息产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.82</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4907</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009769</t>
+          <t>000985</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信汇悦一年定期开放混合C</t>
+          <t>嘉实逆向策略股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>98.82</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4177</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>070021</t>
+          <t>001280</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实主题新动力混合</t>
+          <t>银华聚利灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3541</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000985</t>
+          <t>009768</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实逆向策略股票</t>
+          <t>创金合信汇悦一年定期开放混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2516</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001227</t>
+          <t>005498</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮信息产业灵活配置混合</t>
+          <t>银华积极成长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>81.47</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001280</t>
+          <t>002161</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银华聚利灵活配置混合A</t>
+          <t>银华万物互联灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>9.22</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>710301</t>
+          <t>007056</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富安达增强收益债券A</t>
+          <t>银华积极精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20.36</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>710302</t>
+          <t>001675</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富安达增强收益债券C</t>
+          <t>江信同福灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>20.36</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001675</t>
+          <t>002326</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合A</t>
+          <t>银华聚利灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001676</t>
+          <t>710301</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合C</t>
+          <t>富安达增强收益债券A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002161</t>
+          <t>006270</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>银华万物互联灵活配置混合</t>
+          <t>汇安核心成长混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>21.17</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002326</t>
+          <t>005797</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>银华聚利灵活配置混合C</t>
+          <t>嘉实新添荣定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002269</t>
+          <t>710302</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>银华大数据灵活配置定期开放混合</t>
+          <t>富安达增强收益债券C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005796</t>
+          <t>006271</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉实新添荣定期开放灵活配置混合A</t>
+          <t>汇安核心成长混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>60.66</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8.37</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005797</t>
+          <t>001676</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉实新添荣定期开放灵活配置混合C</t>
+          <t>江信同福灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>60.66</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8.37</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,34 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005498</t>
+          <t>009769</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>银华积极成长混合</t>
+          <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90.89</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1029,7 +1227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,15 +1248,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1080,15 +1288,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>60.86</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.99</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1108,15 +1326,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>60.86</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.99</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600732-爱旭股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600732-爱旭股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1351,4 +1352,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3137</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009653</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成丰享回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009654</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成丰享回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600732-爱旭股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600732-爱旭股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1636,4 +1637,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600732-爱旭股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600732-爱旭股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1731,4 +1732,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600732-爱旭股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600732-爱旭股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1740,7 +1741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,17 +1752,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1771,14 +1792,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.27</v>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0736</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1787,14 +1830,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.35</v>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3425</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1803,14 +1868,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.42</v>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1819,13 +1906,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600732-爱旭股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600732-爱旭股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2139,7 +2140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2150,17 +2151,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2170,14 +2191,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.64</v>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2186,14 +2229,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.27</v>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2202,14 +2267,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.35</v>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2218,14 +2305,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.42</v>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2234,13 +2343,469 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014471</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>19</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600732-爱旭股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600732-爱旭股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="D2" t="n">
-        <v>0.78</v>
+        <v>14.97</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>1.64</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.73</v>
       </c>
     </row>
@@ -583,6 +600,4348 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9075</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3663</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2648</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0965</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6535</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3500</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3341</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2970</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2561</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012523</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方产业智选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014922</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏ESG可持续投资一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013916</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013526</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014329</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>016950</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>62.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>61.89</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>61.89</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014923</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏ESG可持续投资一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011590</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>015507</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012524</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014330</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中融优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>015508</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013917</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>97.01</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012926</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>58.63</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012927</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011589</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>014471</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1130,7 +5489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1528,7 +5887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1622,7 +5981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1906,7 +6265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2038,7 +6397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600732-爱旭股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600732-爱旭股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n">
-        <v>14.97</v>
+        <v>21.55</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="D3" t="n">
-        <v>0.78</v>
+        <v>14.97</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>1.64</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.27</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.73</v>
       </c>
     </row>
@@ -600,6 +617,3820 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1651</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6996</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2638</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1705</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8618</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014460</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7719</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7144</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6568</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5824</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5629</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4398</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4123</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3268</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2897</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2681</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012523</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>016256</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013526</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014482</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏融盛可持续一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014461</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014922</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏ESG可持续投资一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014811</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013916</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015092</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇安远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014806</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国金量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>016858</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>61.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>60.81</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014812</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>61.65</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>60.81</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014483</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏融盛可持续一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014805</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国金量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014923</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏ESG可持续投资一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>45.67</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012524</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>78.24</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013917</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>78.24</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>016950</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015093</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇安远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014692</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>016915</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中金华证清洁能源指数A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>016916</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中金华证清洁能源指数C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014691</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>017290</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>45.67</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4941,7 +8772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5489,7 +9320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5887,7 +9718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5981,7 +9812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6265,7 +10096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6397,7 +10228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
